--- a/recruitment/src/main/resources/Config.xlsx
+++ b/recruitment/src/main/resources/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D5708-5D7E-4CB3-9ABC-CE8282ADEABC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058F1569-D075-49AF-82D1-F0B1C65A3A16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/recruitment/src/main/resources/Config.xlsx
+++ b/recruitment/src/main/resources/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058F1569-D075-49AF-82D1-F0B1C65A3A16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA982028-3AFC-490B-81EE-43A03A340C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/recruitment/src/main/resources/Config.xlsx
+++ b/recruitment/src/main/resources/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Automation_Project\recruitment\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\Desktop\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA982028-3AFC-490B-81EE-43A03A340C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A450C3C-CD54-4B25-A42E-4D0C694AB823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9372" yWindow="3396" windowWidth="11196" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>RunMode</t>
   </si>
@@ -78,7 +78,10 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>automation</t>
+    <t>Automation4</t>
+  </si>
+  <si>
+    <t>11-21</t>
   </si>
 </sst>
 </file>
@@ -127,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +453,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -487,8 +491,8 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
